--- a/806209426/localisation/excel/dod_focus_l_german.xlsx
+++ b/806209426/localisation/excel/dod_focus_l_german.xlsx
@@ -331,7 +331,7 @@
     <t xml:space="preserve"> HUN_renounce_the_treaty_of_trianon_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YMiklós Horthy§! oder §YFriedrich Franz von Mecklenburg-Schwerin§! wird zum Anführer des Landes.\n</t>
+    <t xml:space="preserve">§Y§Y Miklós Horthy §!§!  oder §Y§Y Friedrich Franz von Mecklenburg-Schwerin §!§!  wird zum Anführer des Landes.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> HUN_renounce_the_treaty_of_trianon_desc:</t>
@@ -484,7 +484,7 @@
     <t xml:space="preserve"> HUN_GREATER_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Den Namen in §YGroßungarn§! ändern\n</t>
+    <t xml:space="preserve">Den Namen in §Y§Y Großungarn §!§!  ändern\n</t>
   </si>
   <si>
     <t xml:space="preserve"> HUN_demands_tt:</t>
@@ -808,13 +808,13 @@
     <t xml:space="preserve"> HUN_secret_rearmament_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GSchaltet das §YTeilmobilmachung§!-Gesetz frei.§!\n</t>
+    <t xml:space="preserve">§G§G Schaltet das §Y§Y Teilmobilmachung §!§! -Gesetz frei. §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> HUN_secret_rearmament_tt_2:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDer Nationalgeist wird entfernt, wenn die Wehrpflicht über §YNur Freiwillige§! hinaus ausgeweitet wird.§!\n</t>
+    <t xml:space="preserve">§R§R Der Nationalgeist wird entfernt, wenn die Wehrpflicht über §Y§Y Nur Freiwillige §!§!  hinaus ausgeweitet wird. §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> HUN_war_games:</t>
@@ -856,7 +856,7 @@
     <t xml:space="preserve"> HUN_bled_agreement_custom_effect_tooltip:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kann zum Ersatz des §HVertrags von Trianon§! führen.</t>
+    <t xml:space="preserve">Kann zum Ersatz des §H§H Vertrags von Trianon §!§!  führen.</t>
   </si>
   <si>
     <t xml:space="preserve"> HUN_establish_the_air_force:</t>
@@ -1132,13 +1132,13 @@
     <t xml:space="preserve"> HUN_light_infantry_divisions_doctrine_tech_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktiviert §HLeichte-Infanteriedivisionen-Doktrin§!\n§HInfanterie\n    Wald§!\n      Angriff: §G+2%§!\n      Bewegung: §G+5%§!\n    §HStadt§!\n      Angriff: §G+5%§!\n      Bewegung: §G+5%§!\n</t>
+    <t xml:space="preserve">Aktiviert §H§H Leichte-Infanteriedivisionen-Doktrin §!§! \n§H§H Infanterie\n    Wald §!§! \n      Angriff: §G§G +2% §!§! \n      Bewegung: §G§G +5% §!§! \n    §H§H Stadt §!§! \n      Angriff: §G§G +5% §!§! \n      Bewegung: §G§G +5% §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> HUN_light_infantry_divisions_doctrine_unit_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nErhalten sie eine §YInfanterie§!-Einheit mit 6 Bataillonen.\n</t>
+    <t xml:space="preserve">\nErhalten sie eine §Y§Y Infanterie §!§! -Einheit mit 6 Bataillonen.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> HUN_light_infantry_divisions_doctrine_desc:</t>
@@ -1264,7 +1264,7 @@
     <t xml:space="preserve"> HUN_alpenjaeger_unit_tt:0</t>
   </si>
   <si>
-    <t xml:space="preserve">\nGewinnen Sie eine §YBergsteiger§! Einheit mit 9 Bataillonen.\n</t>
+    <t xml:space="preserve">\nGewinnen Sie eine §Y§Y Bergsteiger §!§!  Einheit mit 9 Bataillonen.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> HUN_alpen_jaeger_desc:0</t>
@@ -1942,13 +1942,13 @@
     <t xml:space="preserve"> ROM_carol_current_leader_trigger:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YKarl II.§! ist der aktuelle Anführer des Landes.</t>
+    <t xml:space="preserve">§Y§Y Karl II. §!§!  ist der aktuelle Anführer des Landes.</t>
   </si>
   <si>
     <t xml:space="preserve"> ROM_carol_not_leader_trigger:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YKarl II.§! ist nicht der aktuelle Anführer des Landes.</t>
+    <t xml:space="preserve">§Y§Y Karl II. §!§!  ist nicht der aktuelle Anführer des Landes.</t>
   </si>
   <si>
     <t xml:space="preserve"> ROM_revise_the_constitution_desc:</t>
@@ -2008,25 +2008,25 @@
     <t xml:space="preserve"> ROM_appoint_german_friendly_government_tooltip:</t>
   </si>
   <si>
-    <t xml:space="preserve">Entfernt §YVerfassungsgarantien§!, §Y$ROM_national_christian_party_in_power$§! und §YSecuritate§!\n</t>
+    <t xml:space="preserve">Entfernt §Y§Y Verfassungsgarantien §!§! , §Y§Y $ROM_national_christian_party_in_power$ §!§!  und §Y§Y Securitate §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> ROM_appoint_allied_friendly_government_tooltip:</t>
   </si>
   <si>
-    <t xml:space="preserve">Entfernt §YEiserne Garde§!, §Y$ROM_national_christian_party_in_power$§! und §YSecuritate§!\n</t>
+    <t xml:space="preserve">Entfernt §Y§Y Eiserne Garde §!§! , §Y§Y $ROM_national_christian_party_in_power$ §!§!  und §Y§Y Securitate §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> ROM_appoint_soviet_friendly_government_tooltip:</t>
   </si>
   <si>
-    <t xml:space="preserve">Entfernt §YVerfassungsgarantien§!, §Y$ROM_national_christian_party_in_power$§! und §YEiserne Garde§!\n</t>
+    <t xml:space="preserve">Entfernt §Y§Y Verfassungsgarantien §!§! , §Y§Y $ROM_national_christian_party_in_power$ §!§!  und §Y§Y Eiserne Garde §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> ROM_appoint_german_friendly_government_tooltip_ncp:</t>
   </si>
   <si>
-    <t xml:space="preserve">Entfernt §YVerfassungsgarantien§!, §YEiserne Garde§! und §YSecuritate§!\n</t>
+    <t xml:space="preserve">Entfernt §Y§Y Verfassungsgarantien §!§! , §Y§Y Eiserne Garde §!§!  und §Y§Y Securitate §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> ROM_iron_guard:</t>
@@ -2308,7 +2308,7 @@
     <t xml:space="preserve"> ROM_vanatori_de_munte_unit_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nErhalten Sie eine §YGebirgsjäger§!-Einheit mit 9 Bataillonen.\n</t>
+    <t xml:space="preserve">\nErhalten Sie eine §Y§Y Gebirgsjäger §!§! -Einheit mit 9 Bataillonen.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> ROM_vanatori_de_munte_desc:</t>
@@ -2350,7 +2350,7 @@
     <t xml:space="preserve"> ROM_mountain_artillery_tech_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktiviert §HBerggeschütz§!\n§HArtillerie\n    Gebirge§!: Bewegung: §G+15%§!\n§HPanzerabwehr\n    Gebirge§!: Bewegung: §G+15%§!</t>
+    <t xml:space="preserve">Aktiviert §H§H Berggeschütz §!§! \n§H§H Artillerie\n    Gebirge §!§! : Bewegung: §G§G +15% §!§! \n§H§H Panzerabwehr\n    Gebirge §!§! : Bewegung: §G§G +15% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> ROM_mountain_artillery_desc:</t>
@@ -2380,7 +2380,7 @@
     <t xml:space="preserve"> ROM_royal_guards_divisions_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhalten Sie eine Einheit mit §Y7 Infanterie§!- und §Y2 Artillerie§!-Bataillonen.\n</t>
+    <t xml:space="preserve">Erhalten Sie eine Einheit mit §Y§Y 7 Infanterie §!§! - und §Y§Y 2 Artillerie §!§! -Bataillonen.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> ROM_royal_guards_divisions_desc:</t>
@@ -2398,7 +2398,7 @@
     <t xml:space="preserve"> ROM_the_armored_division_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhält §Y4 [ROM_UnlockedArmor]-Panzer§! und §Y4 motorisierte§! Bataillone.\n\nFügt zusätzlich §YAufklärungskompanien§! hinzu, sofern die nötige Technologie dafür erforscht wurde.</t>
+    <t xml:space="preserve">Erhält §Y§Y 4 [ROM_UnlockedArmor]-Panzer §!§!  und §Y§Y 4 motorisierte §!§!  Bataillone.\n\nFügt zusätzlich §Y§Y Aufklärungskompanien §!§!  hinzu, sofern die nötige Technologie dafür erforscht wurde.</t>
   </si>
   <si>
     <t xml:space="preserve"> ROM_the_armored_division_desc:</t>
@@ -2476,7 +2476,7 @@
     <t xml:space="preserve"> ROM_coastal_defense_ships_tech_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktiviert §HSchiffe zur Küstenverteidigung§!\n§HSchwere Kreuzer§!\n    Panzer: §G+20%§!\n    Marine-Feuerkraft: §G+10%§!\n    Produktionskosten: §G-10%§!</t>
+    <t xml:space="preserve">Aktiviert §H§H Schiffe zur Küstenverteidigung §!§! \n§H§H Schwere Kreuzer §!§! \n    Panzer: §G§G +20% §!§! \n    Marine-Feuerkraft: §G§G +10% §!§! \n    Produktionskosten: §G§G -10% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> ROM_coastal_defense_ships_desc:</t>
@@ -2992,7 +2992,7 @@
     <t xml:space="preserve"> CZE_exclude_the_slovaks_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Slowaken sind seit langem unzufrieden. Sie trachten nach mehr politischer Macht. Sie fordern, dass fleißigen Tschechen die Ressourcen genommen und stattdessen ihnen gegeben werden. Schluss! Fortan wird die Macht in tschechischen Händen konzentriert sein. §RFührt zum Bürgerkrieg.§!</t>
+    <t xml:space="preserve">Die Slowaken sind seit langem unzufrieden. Sie trachten nach mehr politischer Macht. Sie fordern, dass fleißigen Tschechen die Ressourcen genommen und stattdessen ihnen gegeben werden. Schluss! Fortan wird die Macht in tschechischen Händen konzentriert sein. §R§R Führt zum Bürgerkrieg. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> CZE_national_fascism:</t>
@@ -3421,7 +3421,7 @@
     <t xml:space="preserve"> CZE_war_college_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YWenn Sie bereits 5 Forschungsplätze besitzen, erhalten Sie keinen weiteren zusätzlich.§!\n</t>
+    <t xml:space="preserve">§Y§Y Wenn Sie bereits 5 Forschungsplätze besitzen, erhalten Sie keinen weiteren zusätzlich. §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> CZE_military_aeronautical_institute:</t>
@@ -5065,13 +5065,13 @@
     <t xml:space="preserve"> YUG_coastal_defense_effect_tt1:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y2 Küstenbefestigungen§! hinzufügen\n</t>
+    <t xml:space="preserve">§Y§Y 2 Küstenbefestigungen §!§!  hinzufügen\n</t>
   </si>
   <si>
     <t xml:space="preserve"> YUG_coastal_defense_effect_tt2:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YMarinestützpunkte§! um §Y1 Küstenbefestigung§! erweitern\n</t>
+    <t xml:space="preserve">§Y§Y Marinestützpunkte §!§!  um §Y§Y 1 Küstenbefestigung §!§!  erweitern\n</t>
   </si>
   <si>
     <t xml:space="preserve"> YUG_coastal_defense_desc:</t>
@@ -5104,73 +5104,73 @@
     <t xml:space="preserve"> create_one_units_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erschaffen Sie §Y1 Miliz§!-Einheit.</t>
+    <t xml:space="preserve">Erschaffen Sie §Y§Y 1 Miliz §!§! -Einheit.</t>
   </si>
   <si>
     <t xml:space="preserve"> create_two_units_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erschaffen Sie §Y2 Miliz§!-Einheiten.</t>
+    <t xml:space="preserve">Erschaffen Sie §Y§Y 2 Miliz §!§! -Einheiten.</t>
   </si>
   <si>
     <t xml:space="preserve"> create_three_units_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erschaffen Sie §Y3 Miliz§!-Einheiten.</t>
+    <t xml:space="preserve">Erschaffen Sie §Y§Y 3 Miliz §!§! -Einheiten.</t>
   </si>
   <si>
     <t xml:space="preserve"> create_four_units_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erschaffen Sie §Y4 Miliz§!-Einheiten.</t>
+    <t xml:space="preserve">Erschaffen Sie §Y§Y 4 Miliz §!§! -Einheiten.</t>
   </si>
   <si>
     <t xml:space="preserve"> release_dalmatia_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Entlassen Sie §YDalmatien§! als Marionette.</t>
+    <t xml:space="preserve">Entlassen Sie §Y§Y Dalmatien §!§!  als Marionette.</t>
   </si>
   <si>
     <t xml:space="preserve"> release_transylvania_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Entlassen Sie §YTranssilvanien§! als Marionette.</t>
+    <t xml:space="preserve">Entlassen Sie §Y§Y Transsilvanien §!§!  als Marionette.</t>
   </si>
   <si>
     <t xml:space="preserve"> release_vojvodina_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Entlassen Sie die §YWojwodina§! als Marionette.</t>
+    <t xml:space="preserve">Entlassen Sie die §Y§Y Wojwodina §!§!  als Marionette.</t>
   </si>
   <si>
     <t xml:space="preserve"> release_dalmatia_units_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">(§YDalmatien§!) Erschaffen Sie §Y1 Miliz§!-Einheit.</t>
+    <t xml:space="preserve">(§Y§Y Dalmatien §!§! ) Erschaffen Sie §Y§Y 1 Miliz §!§! -Einheit.</t>
   </si>
   <si>
     <t xml:space="preserve"> transylvania_create_one_units_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">(§YTranssilvanien§!) Erschaffen Sie §Y1 Miliz§!-Einheit.</t>
+    <t xml:space="preserve">(§Y§Y Transsilvanien §!§! ) Erschaffen Sie §Y§Y 1 Miliz §!§! -Einheit.</t>
   </si>
   <si>
     <t xml:space="preserve"> vojvodina_create_one_units_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">(§YWojwodina§!) Erschaffen Sie §Y1 Miliz§!-Einheit.</t>
+    <t xml:space="preserve">(§Y§Y Wojwodina §!§! ) Erschaffen Sie §Y§Y 1 Miliz §!§! -Einheit.</t>
   </si>
   <si>
     <t xml:space="preserve"> all_subjects_become_fascist_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle Untertanennationen in §YEuropa§! werden §Yfaschistisch§!.</t>
+    <t xml:space="preserve">Alle Untertanennationen in §Y§Y Europa §!§!  werden §Y§Y faschistisch §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> neutral_to_fascist_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Sämtliche §Yneutrale§! Beliebtheit wird §Yfaschistische§! Beliebtheit.</t>
+    <t xml:space="preserve">Sämtliche §Y§Y neutrale §!§!  Beliebtheit wird §Y§Y faschistische §!§!  Beliebtheit.</t>
   </si>
   <si>
     <t xml:space="preserve"> YUG_towards_independence_mod:</t>
@@ -5664,8 +5664,8 @@
   </sheetPr>
   <dimension ref="A1:D925"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D925" activeCellId="0" sqref="D1:D925"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6510,11 +6510,11 @@
       </c>
       <c r="C53" s="1" t="str">
         <f aca="false">A53 &amp;" " &amp;"""" &amp;B53 &amp;""""</f>
-        <v> HUN_renounce_the_treaty_of_trianon_tt: "§YMiklós Horthy§! oder §YFriedrich Franz von Mecklenburg-Schwerin§! wird zum Anführer des Landes.\n"</v>
+        <v> HUN_renounce_the_treaty_of_trianon_tt: "§Y§Y Miklós Horthy §!§!  oder §Y§Y Friedrich Franz von Mecklenburg-Schwerin §!§!  wird zum Anführer des Landes.\n"</v>
       </c>
       <c r="D53" s="1" t="str">
         <f aca="false">IF(ISBLANK(A53),"",C53)</f>
-        <v> HUN_renounce_the_treaty_of_trianon_tt: "§YMiklós Horthy§! oder §YFriedrich Franz von Mecklenburg-Schwerin§! wird zum Anführer des Landes.\n"</v>
+        <v> HUN_renounce_the_treaty_of_trianon_tt: "§Y§Y Miklós Horthy §!§!  oder §Y§Y Friedrich Franz von Mecklenburg-Schwerin §!§!  wird zum Anführer des Landes.\n"</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6926,11 +6926,11 @@
       </c>
       <c r="C79" s="1" t="str">
         <f aca="false">A79 &amp;" " &amp;"""" &amp;B79 &amp;""""</f>
-        <v> HUN_GREATER_tt: "Den Namen in §YGroßungarn§! ändern\n"</v>
+        <v> HUN_GREATER_tt: "Den Namen in §Y§Y Großungarn §!§!  ändern\n"</v>
       </c>
       <c r="D79" s="1" t="str">
         <f aca="false">IF(ISBLANK(A79),"",C79)</f>
-        <v> HUN_GREATER_tt: "Den Namen in §YGroßungarn§! ändern\n"</v>
+        <v> HUN_GREATER_tt: "Den Namen in §Y§Y Großungarn §!§!  ändern\n"</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7790,11 +7790,11 @@
       </c>
       <c r="C133" s="1" t="str">
         <f aca="false">A133 &amp;" " &amp;"""" &amp;B133 &amp;""""</f>
-        <v> HUN_secret_rearmament_tt: "§GSchaltet das §YTeilmobilmachung§!-Gesetz frei.§!\n"</v>
+        <v> HUN_secret_rearmament_tt: "§G§G Schaltet das §Y§Y Teilmobilmachung §!§! -Gesetz frei. §!§! \n"</v>
       </c>
       <c r="D133" s="1" t="str">
         <f aca="false">IF(ISBLANK(A133),"",C133)</f>
-        <v> HUN_secret_rearmament_tt: "§GSchaltet das §YTeilmobilmachung§!-Gesetz frei.§!\n"</v>
+        <v> HUN_secret_rearmament_tt: "§G§G Schaltet das §Y§Y Teilmobilmachung §!§! -Gesetz frei. §!§! \n"</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7806,11 +7806,11 @@
       </c>
       <c r="C134" s="1" t="str">
         <f aca="false">A134 &amp;" " &amp;"""" &amp;B134 &amp;""""</f>
-        <v> HUN_secret_rearmament_tt_2: "§RDer Nationalgeist wird entfernt, wenn die Wehrpflicht über §YNur Freiwillige§! hinaus ausgeweitet wird.§!\n"</v>
+        <v> HUN_secret_rearmament_tt_2: "§R§R Der Nationalgeist wird entfernt, wenn die Wehrpflicht über §Y§Y Nur Freiwillige §!§!  hinaus ausgeweitet wird. §!§! \n"</v>
       </c>
       <c r="D134" s="1" t="str">
         <f aca="false">IF(ISBLANK(A134),"",C134)</f>
-        <v> HUN_secret_rearmament_tt_2: "§RDer Nationalgeist wird entfernt, wenn die Wehrpflicht über §YNur Freiwillige§! hinaus ausgeweitet wird.§!\n"</v>
+        <v> HUN_secret_rearmament_tt_2: "§R§R Der Nationalgeist wird entfernt, wenn die Wehrpflicht über §Y§Y Nur Freiwillige §!§!  hinaus ausgeweitet wird. §!§! \n"</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7918,11 +7918,11 @@
       </c>
       <c r="C141" s="1" t="str">
         <f aca="false">A141 &amp;" " &amp;"""" &amp;B141 &amp;""""</f>
-        <v> HUN_bled_agreement_custom_effect_tooltip: "Kann zum Ersatz des §HVertrags von Trianon§! führen."</v>
+        <v> HUN_bled_agreement_custom_effect_tooltip: "Kann zum Ersatz des §H§H Vertrags von Trianon §!§!  führen."</v>
       </c>
       <c r="D141" s="1" t="str">
         <f aca="false">IF(ISBLANK(A141),"",C141)</f>
-        <v> HUN_bled_agreement_custom_effect_tooltip: "Kann zum Ersatz des §HVertrags von Trianon§! führen."</v>
+        <v> HUN_bled_agreement_custom_effect_tooltip: "Kann zum Ersatz des §H§H Vertrags von Trianon §!§!  führen."</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8654,11 +8654,11 @@
       </c>
       <c r="C187" s="1" t="str">
         <f aca="false">A187 &amp;" " &amp;"""" &amp;B187 &amp;""""</f>
-        <v> HUN_light_infantry_divisions_doctrine_tech_tt: "Aktiviert §HLeichte-Infanteriedivisionen-Doktrin§!\n§HInfanterie\n    Wald§!\n      Angriff: §G+2%§!\n      Bewegung: §G+5%§!\n    §HStadt§!\n      Angriff: §G+5%§!\n      Bewegung: §G+5%§!\n"</v>
+        <v> HUN_light_infantry_divisions_doctrine_tech_tt: "Aktiviert §H§H Leichte-Infanteriedivisionen-Doktrin §!§! \n§H§H Infanterie\n    Wald §!§! \n      Angriff: §G§G +2% §!§! \n      Bewegung: §G§G +5% §!§! \n    §H§H Stadt §!§! \n      Angriff: §G§G +5% §!§! \n      Bewegung: §G§G +5% §!§! \n"</v>
       </c>
       <c r="D187" s="1" t="str">
         <f aca="false">IF(ISBLANK(A187),"",C187)</f>
-        <v> HUN_light_infantry_divisions_doctrine_tech_tt: "Aktiviert §HLeichte-Infanteriedivisionen-Doktrin§!\n§HInfanterie\n    Wald§!\n      Angriff: §G+2%§!\n      Bewegung: §G+5%§!\n    §HStadt§!\n      Angriff: §G+5%§!\n      Bewegung: §G+5%§!\n"</v>
+        <v> HUN_light_infantry_divisions_doctrine_tech_tt: "Aktiviert §H§H Leichte-Infanteriedivisionen-Doktrin §!§! \n§H§H Infanterie\n    Wald §!§! \n      Angriff: §G§G +2% §!§! \n      Bewegung: §G§G +5% §!§! \n    §H§H Stadt §!§! \n      Angriff: §G§G +5% §!§! \n      Bewegung: §G§G +5% §!§! \n"</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8670,11 +8670,11 @@
       </c>
       <c r="C188" s="1" t="str">
         <f aca="false">A188 &amp;" " &amp;"""" &amp;B188 &amp;""""</f>
-        <v> HUN_light_infantry_divisions_doctrine_unit_tt: "\nErhalten sie eine §YInfanterie§!-Einheit mit 6 Bataillonen.\n"</v>
+        <v> HUN_light_infantry_divisions_doctrine_unit_tt: "\nErhalten sie eine §Y§Y Infanterie §!§! -Einheit mit 6 Bataillonen.\n"</v>
       </c>
       <c r="D188" s="1" t="str">
         <f aca="false">IF(ISBLANK(A188),"",C188)</f>
-        <v> HUN_light_infantry_divisions_doctrine_unit_tt: "\nErhalten sie eine §YInfanterie§!-Einheit mit 6 Bataillonen.\n"</v>
+        <v> HUN_light_infantry_divisions_doctrine_unit_tt: "\nErhalten sie eine §Y§Y Infanterie §!§! -Einheit mit 6 Bataillonen.\n"</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9006,11 +9006,11 @@
       </c>
       <c r="C209" s="1" t="str">
         <f aca="false">A209 &amp;" " &amp;"""" &amp;B209 &amp;""""</f>
-        <v> HUN_alpenjaeger_unit_tt:0 "\nGewinnen Sie eine §YBergsteiger§! Einheit mit 9 Bataillonen.\n"</v>
+        <v> HUN_alpenjaeger_unit_tt:0 "\nGewinnen Sie eine §Y§Y Bergsteiger §!§!  Einheit mit 9 Bataillonen.\n"</v>
       </c>
       <c r="D209" s="1" t="str">
         <f aca="false">IF(ISBLANK(A209),"",C209)</f>
-        <v> HUN_alpenjaeger_unit_tt:0 "\nGewinnen Sie eine §YBergsteiger§! Einheit mit 9 Bataillonen.\n"</v>
+        <v> HUN_alpenjaeger_unit_tt:0 "\nGewinnen Sie eine §Y§Y Bergsteiger §!§!  Einheit mit 9 Bataillonen.\n"</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10906,11 +10906,11 @@
       </c>
       <c r="C330" s="1" t="str">
         <f aca="false">A330 &amp;" " &amp;"""" &amp;B330 &amp;""""</f>
-        <v> ROM_carol_current_leader_trigger: "§YKarl II.§! ist der aktuelle Anführer des Landes."</v>
+        <v> ROM_carol_current_leader_trigger: "§Y§Y Karl II. §!§!  ist der aktuelle Anführer des Landes."</v>
       </c>
       <c r="D330" s="1" t="str">
         <f aca="false">IF(ISBLANK(A330),"",C330)</f>
-        <v> ROM_carol_current_leader_trigger: "§YKarl II.§! ist der aktuelle Anführer des Landes."</v>
+        <v> ROM_carol_current_leader_trigger: "§Y§Y Karl II. §!§!  ist der aktuelle Anführer des Landes."</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10922,11 +10922,11 @@
       </c>
       <c r="C331" s="1" t="str">
         <f aca="false">A331 &amp;" " &amp;"""" &amp;B331 &amp;""""</f>
-        <v> ROM_carol_not_leader_trigger: "§YKarl II.§! ist nicht der aktuelle Anführer des Landes."</v>
+        <v> ROM_carol_not_leader_trigger: "§Y§Y Karl II. §!§!  ist nicht der aktuelle Anführer des Landes."</v>
       </c>
       <c r="D331" s="1" t="str">
         <f aca="false">IF(ISBLANK(A331),"",C331)</f>
-        <v> ROM_carol_not_leader_trigger: "§YKarl II.§! ist nicht der aktuelle Anführer des Landes."</v>
+        <v> ROM_carol_not_leader_trigger: "§Y§Y Karl II. §!§!  ist nicht der aktuelle Anführer des Landes."</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11082,11 +11082,11 @@
       </c>
       <c r="C341" s="1" t="str">
         <f aca="false">A341 &amp;" " &amp;"""" &amp;B341 &amp;""""</f>
-        <v> ROM_appoint_german_friendly_government_tooltip: "Entfernt §YVerfassungsgarantien§!, §Y$ROM_national_christian_party_in_power$§! und §YSecuritate§!\n"</v>
+        <v> ROM_appoint_german_friendly_government_tooltip: "Entfernt §Y§Y Verfassungsgarantien §!§! , §Y§Y $ROM_national_christian_party_in_power$ §!§!  und §Y§Y Securitate §!§! \n"</v>
       </c>
       <c r="D341" s="1" t="str">
         <f aca="false">IF(ISBLANK(A341),"",C341)</f>
-        <v> ROM_appoint_german_friendly_government_tooltip: "Entfernt §YVerfassungsgarantien§!, §Y$ROM_national_christian_party_in_power$§! und §YSecuritate§!\n"</v>
+        <v> ROM_appoint_german_friendly_government_tooltip: "Entfernt §Y§Y Verfassungsgarantien §!§! , §Y§Y $ROM_national_christian_party_in_power$ §!§!  und §Y§Y Securitate §!§! \n"</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11098,11 +11098,11 @@
       </c>
       <c r="C342" s="1" t="str">
         <f aca="false">A342 &amp;" " &amp;"""" &amp;B342 &amp;""""</f>
-        <v> ROM_appoint_allied_friendly_government_tooltip: "Entfernt §YEiserne Garde§!, §Y$ROM_national_christian_party_in_power$§! und §YSecuritate§!\n"</v>
+        <v> ROM_appoint_allied_friendly_government_tooltip: "Entfernt §Y§Y Eiserne Garde §!§! , §Y§Y $ROM_national_christian_party_in_power$ §!§!  und §Y§Y Securitate §!§! \n"</v>
       </c>
       <c r="D342" s="1" t="str">
         <f aca="false">IF(ISBLANK(A342),"",C342)</f>
-        <v> ROM_appoint_allied_friendly_government_tooltip: "Entfernt §YEiserne Garde§!, §Y$ROM_national_christian_party_in_power$§! und §YSecuritate§!\n"</v>
+        <v> ROM_appoint_allied_friendly_government_tooltip: "Entfernt §Y§Y Eiserne Garde §!§! , §Y§Y $ROM_national_christian_party_in_power$ §!§!  und §Y§Y Securitate §!§! \n"</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11114,11 +11114,11 @@
       </c>
       <c r="C343" s="1" t="str">
         <f aca="false">A343 &amp;" " &amp;"""" &amp;B343 &amp;""""</f>
-        <v> ROM_appoint_soviet_friendly_government_tooltip: "Entfernt §YVerfassungsgarantien§!, §Y$ROM_national_christian_party_in_power$§! und §YEiserne Garde§!\n"</v>
+        <v> ROM_appoint_soviet_friendly_government_tooltip: "Entfernt §Y§Y Verfassungsgarantien §!§! , §Y§Y $ROM_national_christian_party_in_power$ §!§!  und §Y§Y Eiserne Garde §!§! \n"</v>
       </c>
       <c r="D343" s="1" t="str">
         <f aca="false">IF(ISBLANK(A343),"",C343)</f>
-        <v> ROM_appoint_soviet_friendly_government_tooltip: "Entfernt §YVerfassungsgarantien§!, §Y$ROM_national_christian_party_in_power$§! und §YEiserne Garde§!\n"</v>
+        <v> ROM_appoint_soviet_friendly_government_tooltip: "Entfernt §Y§Y Verfassungsgarantien §!§! , §Y§Y $ROM_national_christian_party_in_power$ §!§!  und §Y§Y Eiserne Garde §!§! \n"</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11130,11 +11130,11 @@
       </c>
       <c r="C344" s="1" t="str">
         <f aca="false">A344 &amp;" " &amp;"""" &amp;B344 &amp;""""</f>
-        <v> ROM_appoint_german_friendly_government_tooltip_ncp: "Entfernt §YVerfassungsgarantien§!, §YEiserne Garde§! und §YSecuritate§!\n"</v>
+        <v> ROM_appoint_german_friendly_government_tooltip_ncp: "Entfernt §Y§Y Verfassungsgarantien §!§! , §Y§Y Eiserne Garde §!§!  und §Y§Y Securitate §!§! \n"</v>
       </c>
       <c r="D344" s="1" t="str">
         <f aca="false">IF(ISBLANK(A344),"",C344)</f>
-        <v> ROM_appoint_german_friendly_government_tooltip_ncp: "Entfernt §YVerfassungsgarantien§!, §YEiserne Garde§! und §YSecuritate§!\n"</v>
+        <v> ROM_appoint_german_friendly_government_tooltip_ncp: "Entfernt §Y§Y Verfassungsgarantien §!§! , §Y§Y Eiserne Garde §!§!  und §Y§Y Securitate §!§! \n"</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11898,11 +11898,11 @@
       </c>
       <c r="C392" s="1" t="str">
         <f aca="false">A392 &amp;" " &amp;"""" &amp;B392 &amp;""""</f>
-        <v> ROM_vanatori_de_munte_unit_tt: "\nErhalten Sie eine §YGebirgsjäger§!-Einheit mit 9 Bataillonen.\n"</v>
+        <v> ROM_vanatori_de_munte_unit_tt: "\nErhalten Sie eine §Y§Y Gebirgsjäger §!§! -Einheit mit 9 Bataillonen.\n"</v>
       </c>
       <c r="D392" s="1" t="str">
         <f aca="false">IF(ISBLANK(A392),"",C392)</f>
-        <v> ROM_vanatori_de_munte_unit_tt: "\nErhalten Sie eine §YGebirgsjäger§!-Einheit mit 9 Bataillonen.\n"</v>
+        <v> ROM_vanatori_de_munte_unit_tt: "\nErhalten Sie eine §Y§Y Gebirgsjäger §!§! -Einheit mit 9 Bataillonen.\n"</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12010,11 +12010,11 @@
       </c>
       <c r="C399" s="1" t="str">
         <f aca="false">A399 &amp;" " &amp;"""" &amp;B399 &amp;""""</f>
-        <v> ROM_mountain_artillery_tech_tt: "Aktiviert §HBerggeschütz§!\n§HArtillerie\n    Gebirge§!: Bewegung: §G+15%§!\n§HPanzerabwehr\n    Gebirge§!: Bewegung: §G+15%§!"</v>
+        <v> ROM_mountain_artillery_tech_tt: "Aktiviert §H§H Berggeschütz §!§! \n§H§H Artillerie\n    Gebirge §!§! : Bewegung: §G§G +15% §!§! \n§H§H Panzerabwehr\n    Gebirge §!§! : Bewegung: §G§G +15% §!§! "</v>
       </c>
       <c r="D399" s="1" t="str">
         <f aca="false">IF(ISBLANK(A399),"",C399)</f>
-        <v> ROM_mountain_artillery_tech_tt: "Aktiviert §HBerggeschütz§!\n§HArtillerie\n    Gebirge§!: Bewegung: §G+15%§!\n§HPanzerabwehr\n    Gebirge§!: Bewegung: §G+15%§!"</v>
+        <v> ROM_mountain_artillery_tech_tt: "Aktiviert §H§H Berggeschütz §!§! \n§H§H Artillerie\n    Gebirge §!§! : Bewegung: §G§G +15% §!§! \n§H§H Panzerabwehr\n    Gebirge §!§! : Bewegung: §G§G +15% §!§! "</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12090,11 +12090,11 @@
       </c>
       <c r="C404" s="1" t="str">
         <f aca="false">A404 &amp;" " &amp;"""" &amp;B404 &amp;""""</f>
-        <v> ROM_royal_guards_divisions_tt: "Erhalten Sie eine Einheit mit §Y7 Infanterie§!- und §Y2 Artillerie§!-Bataillonen.\n"</v>
+        <v> ROM_royal_guards_divisions_tt: "Erhalten Sie eine Einheit mit §Y§Y 7 Infanterie §!§! - und §Y§Y 2 Artillerie §!§! -Bataillonen.\n"</v>
       </c>
       <c r="D404" s="1" t="str">
         <f aca="false">IF(ISBLANK(A404),"",C404)</f>
-        <v> ROM_royal_guards_divisions_tt: "Erhalten Sie eine Einheit mit §Y7 Infanterie§!- und §Y2 Artillerie§!-Bataillonen.\n"</v>
+        <v> ROM_royal_guards_divisions_tt: "Erhalten Sie eine Einheit mit §Y§Y 7 Infanterie §!§! - und §Y§Y 2 Artillerie §!§! -Bataillonen.\n"</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12138,11 +12138,11 @@
       </c>
       <c r="C407" s="1" t="str">
         <f aca="false">A407 &amp;" " &amp;"""" &amp;B407 &amp;""""</f>
-        <v> ROM_the_armored_division_tt: "Erhält §Y4 [ROM_UnlockedArmor]-Panzer§! und §Y4 motorisierte§! Bataillone.\n\nFügt zusätzlich §YAufklärungskompanien§! hinzu, sofern die nötige Technologie dafür erforscht wurde."</v>
+        <v> ROM_the_armored_division_tt: "Erhält §Y§Y 4 [ROM_UnlockedArmor]-Panzer §!§!  und §Y§Y 4 motorisierte §!§!  Bataillone.\n\nFügt zusätzlich §Y§Y Aufklärungskompanien §!§!  hinzu, sofern die nötige Technologie dafür erforscht wurde."</v>
       </c>
       <c r="D407" s="1" t="str">
         <f aca="false">IF(ISBLANK(A407),"",C407)</f>
-        <v> ROM_the_armored_division_tt: "Erhält §Y4 [ROM_UnlockedArmor]-Panzer§! und §Y4 motorisierte§! Bataillone.\n\nFügt zusätzlich §YAufklärungskompanien§! hinzu, sofern die nötige Technologie dafür erforscht wurde."</v>
+        <v> ROM_the_armored_division_tt: "Erhält §Y§Y 4 [ROM_UnlockedArmor]-Panzer §!§!  und §Y§Y 4 motorisierte §!§!  Bataillone.\n\nFügt zusätzlich §Y§Y Aufklärungskompanien §!§!  hinzu, sofern die nötige Technologie dafür erforscht wurde."</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12346,11 +12346,11 @@
       </c>
       <c r="C420" s="1" t="str">
         <f aca="false">A420 &amp;" " &amp;"""" &amp;B420 &amp;""""</f>
-        <v> ROM_coastal_defense_ships_tech_tt: "Aktiviert §HSchiffe zur Küstenverteidigung§!\n§HSchwere Kreuzer§!\n    Panzer: §G+20%§!\n    Marine-Feuerkraft: §G+10%§!\n    Produktionskosten: §G-10%§!"</v>
+        <v> ROM_coastal_defense_ships_tech_tt: "Aktiviert §H§H Schiffe zur Küstenverteidigung §!§! \n§H§H Schwere Kreuzer §!§! \n    Panzer: §G§G +20% §!§! \n    Marine-Feuerkraft: §G§G +10% §!§! \n    Produktionskosten: §G§G -10% §!§! "</v>
       </c>
       <c r="D420" s="1" t="str">
         <f aca="false">IF(ISBLANK(A420),"",C420)</f>
-        <v> ROM_coastal_defense_ships_tech_tt: "Aktiviert §HSchiffe zur Küstenverteidigung§!\n§HSchwere Kreuzer§!\n    Panzer: §G+20%§!\n    Marine-Feuerkraft: §G+10%§!\n    Produktionskosten: §G-10%§!"</v>
+        <v> ROM_coastal_defense_ships_tech_tt: "Aktiviert §H§H Schiffe zur Küstenverteidigung §!§! \n§H§H Schwere Kreuzer §!§! \n    Panzer: §G§G +20% §!§! \n    Marine-Feuerkraft: §G§G +10% §!§! \n    Produktionskosten: §G§G -10% §!§! "</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13738,11 +13738,11 @@
       </c>
       <c r="C507" s="1" t="str">
         <f aca="false">A507 &amp;" " &amp;"""" &amp;B507 &amp;""""</f>
-        <v> CZE_exclude_the_slovaks_desc: "Die Slowaken sind seit langem unzufrieden. Sie trachten nach mehr politischer Macht. Sie fordern, dass fleißigen Tschechen die Ressourcen genommen und stattdessen ihnen gegeben werden. Schluss! Fortan wird die Macht in tschechischen Händen konzentriert sein. §RFührt zum Bürgerkrieg.§!"</v>
+        <v> CZE_exclude_the_slovaks_desc: "Die Slowaken sind seit langem unzufrieden. Sie trachten nach mehr politischer Macht. Sie fordern, dass fleißigen Tschechen die Ressourcen genommen und stattdessen ihnen gegeben werden. Schluss! Fortan wird die Macht in tschechischen Händen konzentriert sein. §R§R Führt zum Bürgerkrieg. §!§! "</v>
       </c>
       <c r="D507" s="1" t="str">
         <f aca="false">IF(ISBLANK(A507),"",C507)</f>
-        <v> CZE_exclude_the_slovaks_desc: "Die Slowaken sind seit langem unzufrieden. Sie trachten nach mehr politischer Macht. Sie fordern, dass fleißigen Tschechen die Ressourcen genommen und stattdessen ihnen gegeben werden. Schluss! Fortan wird die Macht in tschechischen Händen konzentriert sein. §RFührt zum Bürgerkrieg.§!"</v>
+        <v> CZE_exclude_the_slovaks_desc: "Die Slowaken sind seit langem unzufrieden. Sie trachten nach mehr politischer Macht. Sie fordern, dass fleißigen Tschechen die Ressourcen genommen und stattdessen ihnen gegeben werden. Schluss! Fortan wird die Macht in tschechischen Händen konzentriert sein. §R§R Führt zum Bürgerkrieg. §!§! "</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14890,11 +14890,11 @@
       </c>
       <c r="C579" s="1" t="str">
         <f aca="false">A579 &amp;" " &amp;"""" &amp;B579 &amp;""""</f>
-        <v> CZE_war_college_effect_tt: "§YWenn Sie bereits 5 Forschungsplätze besitzen, erhalten Sie keinen weiteren zusätzlich.§!\n"</v>
+        <v> CZE_war_college_effect_tt: "§Y§Y Wenn Sie bereits 5 Forschungsplätze besitzen, erhalten Sie keinen weiteren zusätzlich. §!§! \n"</v>
       </c>
       <c r="D579" s="1" t="str">
         <f aca="false">IF(ISBLANK(A579),"",C579)</f>
-        <v> CZE_war_college_effect_tt: "§YWenn Sie bereits 5 Forschungsplätze besitzen, erhalten Sie keinen weiteren zusätzlich.§!\n"</v>
+        <v> CZE_war_college_effect_tt: "§Y§Y Wenn Sie bereits 5 Forschungsplätze besitzen, erhalten Sie keinen weiteren zusätzlich. §!§! \n"</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19322,11 +19322,11 @@
       </c>
       <c r="C856" s="1" t="str">
         <f aca="false">A856 &amp;" " &amp;"""" &amp;B856 &amp;""""</f>
-        <v> YUG_coastal_defense_effect_tt1: "§Y2 Küstenbefestigungen§! hinzufügen\n"</v>
+        <v> YUG_coastal_defense_effect_tt1: "§Y§Y 2 Küstenbefestigungen §!§!  hinzufügen\n"</v>
       </c>
       <c r="D856" s="1" t="str">
         <f aca="false">IF(ISBLANK(A856),"",C856)</f>
-        <v> YUG_coastal_defense_effect_tt1: "§Y2 Küstenbefestigungen§! hinzufügen\n"</v>
+        <v> YUG_coastal_defense_effect_tt1: "§Y§Y 2 Küstenbefestigungen §!§!  hinzufügen\n"</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19338,11 +19338,11 @@
       </c>
       <c r="C857" s="1" t="str">
         <f aca="false">A857 &amp;" " &amp;"""" &amp;B857 &amp;""""</f>
-        <v> YUG_coastal_defense_effect_tt2: "§YMarinestützpunkte§! um §Y1 Küstenbefestigung§! erweitern\n"</v>
+        <v> YUG_coastal_defense_effect_tt2: "§Y§Y Marinestützpunkte §!§!  um §Y§Y 1 Küstenbefestigung §!§!  erweitern\n"</v>
       </c>
       <c r="D857" s="1" t="str">
         <f aca="false">IF(ISBLANK(A857),"",C857)</f>
-        <v> YUG_coastal_defense_effect_tt2: "§YMarinestützpunkte§! um §Y1 Küstenbefestigung§! erweitern\n"</v>
+        <v> YUG_coastal_defense_effect_tt2: "§Y§Y Marinestützpunkte §!§!  um §Y§Y 1 Küstenbefestigung §!§!  erweitern\n"</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19434,11 +19434,11 @@
       </c>
       <c r="C863" s="1" t="str">
         <f aca="false">A863 &amp;" " &amp;"""" &amp;B863 &amp;""""</f>
-        <v> create_one_units_tt: "Erschaffen Sie §Y1 Miliz§!-Einheit."</v>
+        <v> create_one_units_tt: "Erschaffen Sie §Y§Y 1 Miliz §!§! -Einheit."</v>
       </c>
       <c r="D863" s="1" t="str">
         <f aca="false">IF(ISBLANK(A863),"",C863)</f>
-        <v> create_one_units_tt: "Erschaffen Sie §Y1 Miliz§!-Einheit."</v>
+        <v> create_one_units_tt: "Erschaffen Sie §Y§Y 1 Miliz §!§! -Einheit."</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19450,11 +19450,11 @@
       </c>
       <c r="C864" s="1" t="str">
         <f aca="false">A864 &amp;" " &amp;"""" &amp;B864 &amp;""""</f>
-        <v> create_two_units_tt: "Erschaffen Sie §Y2 Miliz§!-Einheiten."</v>
+        <v> create_two_units_tt: "Erschaffen Sie §Y§Y 2 Miliz §!§! -Einheiten."</v>
       </c>
       <c r="D864" s="1" t="str">
         <f aca="false">IF(ISBLANK(A864),"",C864)</f>
-        <v> create_two_units_tt: "Erschaffen Sie §Y2 Miliz§!-Einheiten."</v>
+        <v> create_two_units_tt: "Erschaffen Sie §Y§Y 2 Miliz §!§! -Einheiten."</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19466,11 +19466,11 @@
       </c>
       <c r="C865" s="1" t="str">
         <f aca="false">A865 &amp;" " &amp;"""" &amp;B865 &amp;""""</f>
-        <v> create_three_units_tt: "Erschaffen Sie §Y3 Miliz§!-Einheiten."</v>
+        <v> create_three_units_tt: "Erschaffen Sie §Y§Y 3 Miliz §!§! -Einheiten."</v>
       </c>
       <c r="D865" s="1" t="str">
         <f aca="false">IF(ISBLANK(A865),"",C865)</f>
-        <v> create_three_units_tt: "Erschaffen Sie §Y3 Miliz§!-Einheiten."</v>
+        <v> create_three_units_tt: "Erschaffen Sie §Y§Y 3 Miliz §!§! -Einheiten."</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19482,11 +19482,11 @@
       </c>
       <c r="C866" s="1" t="str">
         <f aca="false">A866 &amp;" " &amp;"""" &amp;B866 &amp;""""</f>
-        <v> create_four_units_tt: "Erschaffen Sie §Y4 Miliz§!-Einheiten."</v>
+        <v> create_four_units_tt: "Erschaffen Sie §Y§Y 4 Miliz §!§! -Einheiten."</v>
       </c>
       <c r="D866" s="1" t="str">
         <f aca="false">IF(ISBLANK(A866),"",C866)</f>
-        <v> create_four_units_tt: "Erschaffen Sie §Y4 Miliz§!-Einheiten."</v>
+        <v> create_four_units_tt: "Erschaffen Sie §Y§Y 4 Miliz §!§! -Einheiten."</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19498,11 +19498,11 @@
       </c>
       <c r="C867" s="1" t="str">
         <f aca="false">A867 &amp;" " &amp;"""" &amp;B867 &amp;""""</f>
-        <v> release_dalmatia_tt: "Entlassen Sie §YDalmatien§! als Marionette."</v>
+        <v> release_dalmatia_tt: "Entlassen Sie §Y§Y Dalmatien §!§!  als Marionette."</v>
       </c>
       <c r="D867" s="1" t="str">
         <f aca="false">IF(ISBLANK(A867),"",C867)</f>
-        <v> release_dalmatia_tt: "Entlassen Sie §YDalmatien§! als Marionette."</v>
+        <v> release_dalmatia_tt: "Entlassen Sie §Y§Y Dalmatien §!§!  als Marionette."</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19514,11 +19514,11 @@
       </c>
       <c r="C868" s="1" t="str">
         <f aca="false">A868 &amp;" " &amp;"""" &amp;B868 &amp;""""</f>
-        <v> release_transylvania_tt: "Entlassen Sie §YTranssilvanien§! als Marionette."</v>
+        <v> release_transylvania_tt: "Entlassen Sie §Y§Y Transsilvanien §!§!  als Marionette."</v>
       </c>
       <c r="D868" s="1" t="str">
         <f aca="false">IF(ISBLANK(A868),"",C868)</f>
-        <v> release_transylvania_tt: "Entlassen Sie §YTranssilvanien§! als Marionette."</v>
+        <v> release_transylvania_tt: "Entlassen Sie §Y§Y Transsilvanien §!§!  als Marionette."</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19530,11 +19530,11 @@
       </c>
       <c r="C869" s="1" t="str">
         <f aca="false">A869 &amp;" " &amp;"""" &amp;B869 &amp;""""</f>
-        <v> release_vojvodina_tt: "Entlassen Sie die §YWojwodina§! als Marionette."</v>
+        <v> release_vojvodina_tt: "Entlassen Sie die §Y§Y Wojwodina §!§!  als Marionette."</v>
       </c>
       <c r="D869" s="1" t="str">
         <f aca="false">IF(ISBLANK(A869),"",C869)</f>
-        <v> release_vojvodina_tt: "Entlassen Sie die §YWojwodina§! als Marionette."</v>
+        <v> release_vojvodina_tt: "Entlassen Sie die §Y§Y Wojwodina §!§!  als Marionette."</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19546,11 +19546,11 @@
       </c>
       <c r="C870" s="1" t="str">
         <f aca="false">A870 &amp;" " &amp;"""" &amp;B870 &amp;""""</f>
-        <v> release_dalmatia_units_tt: "(§YDalmatien§!) Erschaffen Sie §Y1 Miliz§!-Einheit."</v>
+        <v> release_dalmatia_units_tt: "(§Y§Y Dalmatien §!§! ) Erschaffen Sie §Y§Y 1 Miliz §!§! -Einheit."</v>
       </c>
       <c r="D870" s="1" t="str">
         <f aca="false">IF(ISBLANK(A870),"",C870)</f>
-        <v> release_dalmatia_units_tt: "(§YDalmatien§!) Erschaffen Sie §Y1 Miliz§!-Einheit."</v>
+        <v> release_dalmatia_units_tt: "(§Y§Y Dalmatien §!§! ) Erschaffen Sie §Y§Y 1 Miliz §!§! -Einheit."</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19562,11 +19562,11 @@
       </c>
       <c r="C871" s="1" t="str">
         <f aca="false">A871 &amp;" " &amp;"""" &amp;B871 &amp;""""</f>
-        <v> transylvania_create_one_units_tt: "(§YTranssilvanien§!) Erschaffen Sie §Y1 Miliz§!-Einheit."</v>
+        <v> transylvania_create_one_units_tt: "(§Y§Y Transsilvanien §!§! ) Erschaffen Sie §Y§Y 1 Miliz §!§! -Einheit."</v>
       </c>
       <c r="D871" s="1" t="str">
         <f aca="false">IF(ISBLANK(A871),"",C871)</f>
-        <v> transylvania_create_one_units_tt: "(§YTranssilvanien§!) Erschaffen Sie §Y1 Miliz§!-Einheit."</v>
+        <v> transylvania_create_one_units_tt: "(§Y§Y Transsilvanien §!§! ) Erschaffen Sie §Y§Y 1 Miliz §!§! -Einheit."</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19578,11 +19578,11 @@
       </c>
       <c r="C872" s="1" t="str">
         <f aca="false">A872 &amp;" " &amp;"""" &amp;B872 &amp;""""</f>
-        <v> vojvodina_create_one_units_tt: "(§YWojwodina§!) Erschaffen Sie §Y1 Miliz§!-Einheit."</v>
+        <v> vojvodina_create_one_units_tt: "(§Y§Y Wojwodina §!§! ) Erschaffen Sie §Y§Y 1 Miliz §!§! -Einheit."</v>
       </c>
       <c r="D872" s="1" t="str">
         <f aca="false">IF(ISBLANK(A872),"",C872)</f>
-        <v> vojvodina_create_one_units_tt: "(§YWojwodina§!) Erschaffen Sie §Y1 Miliz§!-Einheit."</v>
+        <v> vojvodina_create_one_units_tt: "(§Y§Y Wojwodina §!§! ) Erschaffen Sie §Y§Y 1 Miliz §!§! -Einheit."</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19594,11 +19594,11 @@
       </c>
       <c r="C873" s="1" t="str">
         <f aca="false">A873 &amp;" " &amp;"""" &amp;B873 &amp;""""</f>
-        <v> all_subjects_become_fascist_tt: "Alle Untertanennationen in §YEuropa§! werden §Yfaschistisch§!."</v>
+        <v> all_subjects_become_fascist_tt: "Alle Untertanennationen in §Y§Y Europa §!§!  werden §Y§Y faschistisch §!§! ."</v>
       </c>
       <c r="D873" s="1" t="str">
         <f aca="false">IF(ISBLANK(A873),"",C873)</f>
-        <v> all_subjects_become_fascist_tt: "Alle Untertanennationen in §YEuropa§! werden §Yfaschistisch§!."</v>
+        <v> all_subjects_become_fascist_tt: "Alle Untertanennationen in §Y§Y Europa §!§!  werden §Y§Y faschistisch §!§! ."</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19610,11 +19610,11 @@
       </c>
       <c r="C874" s="1" t="str">
         <f aca="false">A874 &amp;" " &amp;"""" &amp;B874 &amp;""""</f>
-        <v> neutral_to_fascist_tt: "Sämtliche §Yneutrale§! Beliebtheit wird §Yfaschistische§! Beliebtheit."</v>
+        <v> neutral_to_fascist_tt: "Sämtliche §Y§Y neutrale §!§!  Beliebtheit wird §Y§Y faschistische §!§!  Beliebtheit."</v>
       </c>
       <c r="D874" s="1" t="str">
         <f aca="false">IF(ISBLANK(A874),"",C874)</f>
-        <v> neutral_to_fascist_tt: "Sämtliche §Yneutrale§! Beliebtheit wird §Yfaschistische§! Beliebtheit."</v>
+        <v> neutral_to_fascist_tt: "Sämtliche §Y§Y neutrale §!§!  Beliebtheit wird §Y§Y faschistische §!§!  Beliebtheit."</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
